--- a/Bemorlar ro`yxati.xlsx
+++ b/Bemorlar ro`yxati.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">ID raqami </t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Asal</t>
+  </si>
+  <si>
+    <t>+998909999999</t>
+  </si>
+  <si>
+    <t>1qavat</t>
+  </si>
+  <si>
+    <t>21xona</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
   </si>
 </sst>
 </file>
@@ -95,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,6 +165,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Bemorlar ro`yxati.xlsx
+++ b/Bemorlar ro`yxati.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t xml:space="preserve">ID raqami </t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>2022-12-07</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Nodir</t>
+  </si>
+  <si>
+    <t>+998911112222</t>
+  </si>
+  <si>
+    <t>2 xona</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>+998907776666</t>
+  </si>
+  <si>
+    <t>1 qavat</t>
   </si>
 </sst>
 </file>
@@ -113,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -188,6 +209,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
